--- a/model-inference/decisionTree/experiments/gpu_results/tpcxai_fraud/tpcxai_fraud.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/tpcxai_fraud/tpcxai_fraud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\tpcxai_fraud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70DFD98-82C2-4696-ADBC-A22933E9000C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1754CF6-931C-456F-BC50-8500E620E314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10332" yWindow="3132" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -9213,8 +9213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13688,6 +13688,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L113">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G67">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -13699,7 +13711,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G67">
+  <conditionalFormatting sqref="E2:E67">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -13711,7 +13723,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E67">
+  <conditionalFormatting sqref="E2:E113">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -13723,7 +13735,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E113">
+  <conditionalFormatting sqref="G2:G113">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -13735,7 +13747,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G113">
+  <conditionalFormatting sqref="H2:H113">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -13747,7 +13759,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H113">
+  <conditionalFormatting sqref="K2:K113">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -20390,7 +20402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
